--- a/Study/평가2차_REFramework/Data/Output/FakeNameGenerator.xlsx
+++ b/Study/평가2차_REFramework/Data/Output/FakeNameGenerator.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <x:si>
     <x:t>Number</x:t>
   </x:si>
@@ -31,61 +31,16 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>Michael N. Schaefer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>502-425-2966</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">MichaelNSchaefer@rhyta.com            </x:t>
-  </x:si>
-  <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>Chrissy S. Williams</x:t>
-  </x:si>
-  <x:si>
-    <x:t>510-967-6145</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ChrissySWilliams@rhyta.com            </x:t>
-  </x:si>
-  <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>Barbara C. Walden</x:t>
-  </x:si>
-  <x:si>
-    <x:t>704-887-8012</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">BarbaraCWalden@armyspy.com            </x:t>
-  </x:si>
-  <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>Steven G. Torres</x:t>
-  </x:si>
-  <x:si>
-    <x:t>937-846-6946</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">StevenGTorres@dayrep.com            </x:t>
-  </x:si>
-  <x:si>
     <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amy P. Trammell</x:t>
-  </x:si>
-  <x:si>
-    <x:t>409-866-1403</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">AmyPTrammell@dayrep.com            </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -460,70 +415,25 @@
       <x:c r="A2" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
